--- a/Ch1/Challenge_start.xlsx
+++ b/Ch1/Challenge_start.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27304"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\LinkedIn Learning\In Progress Projects\Python in Excel Quickstart\Exercises\Ch1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\LinkedIn Learning\Completed Projects\Python in Excel Quickstart\Exercises\Ch1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0677157-2F36-49D4-98FD-B50DDDBBF3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD9180AC-659D-43AE-8BB9-8F6ADF453287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B258367B-FB1C-4EDD-9A3D-B241852D109C}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,27 +34,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
-<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
-  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
-      <code xml:space="preserve">import numpy as np
-import pandas as pd
-import matplotlib.pyplot as plt
-import seaborn as sns
-import statsmodels as sm
-import excel
-import warnings
-warnings.simplefilter('ignore')
-excel.set_xl_scalar_conversion(excel.convert_to_scalar)
-excel.set_xl_array_conversion(excel.convert_to_dataframe)
-</code>
-    </initialization>
-  </environmentDefinition>
-  <pythonScripts/>
-</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,7 +458,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
